--- a/test_excel.xlsx
+++ b/test_excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19452\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRATYUSH\Downloads\SMUCBRE\hacksmu\hacksmu-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF58969-9A64-43A8-AF6B-1633ACCF5964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BF8EC7-950B-427E-9129-573A5CA7CD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A98843CB-EA36-4FCA-A27C-39C9C3A0F1C2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A98843CB-EA36-4FCA-A27C-39C9C3A0F1C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Anomaly</t>
   </si>
@@ -71,10 +71,13 @@
     <t>Manufacturer_6</t>
   </si>
   <si>
-    <t>Latest Service Date</t>
-  </si>
-  <si>
-    <t>Average service times</t>
+    <t>DelayTime</t>
+  </si>
+  <si>
+    <t>Averageservicetimes</t>
+  </si>
+  <si>
+    <t>LatestServiceDate</t>
   </si>
 </sst>
 </file>
@@ -433,20 +436,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B1D079-1DB1-4D2F-998E-027B87DD1E40}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.77734375" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,13 +468,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -491,8 +499,11 @@
       <c r="G2">
         <v>105</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -514,8 +525,11 @@
       <c r="G3">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -537,8 +551,11 @@
       <c r="G4">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>-1</v>
       </c>
@@ -560,8 +577,11 @@
       <c r="G5">
         <v>1300</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -583,8 +603,11 @@
       <c r="G6">
         <v>230</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -606,8 +629,11 @@
       <c r="G7">
         <v>73</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -629,8 +655,11 @@
       <c r="G8">
         <v>2000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>-1</v>
       </c>
@@ -652,8 +681,11 @@
       <c r="G9">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -674,6 +706,9 @@
       </c>
       <c r="G10">
         <v>400</v>
+      </c>
+      <c r="H10">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
